--- a/1.DELIVERABLE/1.3 REQUIREMENT/BSS_ListOfUsecaseDescriptions_V1.0.xlsx
+++ b/1.DELIVERABLE/1.3 REQUIREMENT/BSS_ListOfUsecaseDescriptions_V1.0.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CapstonProject\CapstonProject\SUBMIT_PLACE\HAI_TRAN\REQUIREMENT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CapstonProject\CapstonProject\1.DELIVERABLE\1.3 REQUIREMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" tabRatio="901" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" tabRatio="901" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Legend" sheetId="2" r:id="rId1"/>
@@ -1339,6 +1339,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1444,11 +1449,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -1457,72 +1457,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
     <mruColors>
       <color rgb="FFFF3333"/>
       <color rgb="FFFC2704"/>
@@ -1544,7 +1478,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="1E1E1E"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1876,10 +1810,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="86" t="s">
         <v>176</v>
       </c>
-      <c r="D3" s="83"/>
+      <c r="D3" s="86"/>
     </row>
     <row r="4" spans="2:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="C4" s="2" t="s">
@@ -1994,8 +1928,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2053,7 +1988,7 @@
       <c r="A2" s="59">
         <v>1</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="99" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -2086,7 +2021,7 @@
       <c r="A3" s="59">
         <v>2</v>
       </c>
-      <c r="B3" s="97"/>
+      <c r="B3" s="100"/>
       <c r="C3" s="27" t="s">
         <v>41</v>
       </c>
@@ -2119,7 +2054,7 @@
       <c r="A4" s="59">
         <v>3</v>
       </c>
-      <c r="B4" s="97"/>
+      <c r="B4" s="100"/>
       <c r="C4" s="27" t="s">
         <v>42</v>
       </c>
@@ -2150,7 +2085,7 @@
       <c r="A5" s="59">
         <v>4</v>
       </c>
-      <c r="B5" s="97"/>
+      <c r="B5" s="100"/>
       <c r="C5" s="27" t="s">
         <v>43</v>
       </c>
@@ -2183,7 +2118,7 @@
       <c r="A6" s="59">
         <v>5</v>
       </c>
-      <c r="B6" s="97"/>
+      <c r="B6" s="100"/>
       <c r="C6" s="27" t="s">
         <v>44</v>
       </c>
@@ -2214,7 +2149,7 @@
       <c r="A7" s="59">
         <v>6</v>
       </c>
-      <c r="B7" s="97"/>
+      <c r="B7" s="100"/>
       <c r="C7" s="27" t="s">
         <v>45</v>
       </c>
@@ -2245,7 +2180,7 @@
       <c r="A8" s="59">
         <v>7</v>
       </c>
-      <c r="B8" s="97"/>
+      <c r="B8" s="100"/>
       <c r="C8" s="27" t="s">
         <v>46</v>
       </c>
@@ -2276,7 +2211,7 @@
       <c r="A9" s="59">
         <v>8</v>
       </c>
-      <c r="B9" s="97"/>
+      <c r="B9" s="100"/>
       <c r="C9" s="27" t="s">
         <v>86</v>
       </c>
@@ -2307,7 +2242,7 @@
       <c r="A10" s="59">
         <v>9</v>
       </c>
-      <c r="B10" s="97"/>
+      <c r="B10" s="100"/>
       <c r="C10" s="27" t="s">
         <v>92</v>
       </c>
@@ -2338,7 +2273,7 @@
       <c r="A11" s="59">
         <v>10</v>
       </c>
-      <c r="B11" s="97"/>
+      <c r="B11" s="100"/>
       <c r="C11" s="27" t="s">
         <v>219</v>
       </c>
@@ -2371,7 +2306,7 @@
       <c r="A12" s="59">
         <v>11</v>
       </c>
-      <c r="B12" s="98"/>
+      <c r="B12" s="101"/>
       <c r="C12" s="27" t="s">
         <v>220</v>
       </c>
@@ -2404,7 +2339,7 @@
       <c r="A13" s="59">
         <v>12</v>
       </c>
-      <c r="B13" s="105" t="s">
+      <c r="B13" s="108" t="s">
         <v>183</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -2437,7 +2372,7 @@
       <c r="A14" s="59">
         <v>13</v>
       </c>
-      <c r="B14" s="106"/>
+      <c r="B14" s="109"/>
       <c r="C14" s="27" t="s">
         <v>48</v>
       </c>
@@ -2468,7 +2403,7 @@
       <c r="A15" s="59">
         <v>14</v>
       </c>
-      <c r="B15" s="106"/>
+      <c r="B15" s="109"/>
       <c r="C15" s="27" t="s">
         <v>49</v>
       </c>
@@ -2499,7 +2434,7 @@
       <c r="A16" s="59">
         <v>15</v>
       </c>
-      <c r="B16" s="106"/>
+      <c r="B16" s="109"/>
       <c r="C16" s="27" t="s">
         <v>50</v>
       </c>
@@ -2530,7 +2465,7 @@
       <c r="A17" s="59">
         <v>16</v>
       </c>
-      <c r="B17" s="106"/>
+      <c r="B17" s="109"/>
       <c r="C17" s="27" t="s">
         <v>51</v>
       </c>
@@ -2561,7 +2496,7 @@
       <c r="A18" s="59">
         <v>17</v>
       </c>
-      <c r="B18" s="106"/>
+      <c r="B18" s="109"/>
       <c r="C18" s="27" t="s">
         <v>52</v>
       </c>
@@ -2592,7 +2527,7 @@
       <c r="A19" s="59">
         <v>18</v>
       </c>
-      <c r="B19" s="106"/>
+      <c r="B19" s="109"/>
       <c r="C19" s="27" t="s">
         <v>53</v>
       </c>
@@ -2623,7 +2558,7 @@
       <c r="A20" s="59">
         <v>19</v>
       </c>
-      <c r="B20" s="106"/>
+      <c r="B20" s="109"/>
       <c r="C20" s="27" t="s">
         <v>54</v>
       </c>
@@ -2654,7 +2589,7 @@
       <c r="A21" s="59">
         <v>20</v>
       </c>
-      <c r="B21" s="106"/>
+      <c r="B21" s="109"/>
       <c r="C21" s="27" t="s">
         <v>55</v>
       </c>
@@ -2685,7 +2620,7 @@
       <c r="A22" s="59">
         <v>21</v>
       </c>
-      <c r="B22" s="106"/>
+      <c r="B22" s="109"/>
       <c r="C22" s="27" t="s">
         <v>56</v>
       </c>
@@ -2716,7 +2651,7 @@
       <c r="A23" s="59">
         <v>22</v>
       </c>
-      <c r="B23" s="106"/>
+      <c r="B23" s="109"/>
       <c r="C23" s="27" t="s">
         <v>57</v>
       </c>
@@ -2747,7 +2682,7 @@
       <c r="A24" s="59">
         <v>23</v>
       </c>
-      <c r="B24" s="106"/>
+      <c r="B24" s="109"/>
       <c r="C24" s="27" t="s">
         <v>58</v>
       </c>
@@ -2772,7 +2707,7 @@
       <c r="A25" s="59">
         <v>24</v>
       </c>
-      <c r="B25" s="107"/>
+      <c r="B25" s="110"/>
       <c r="C25" s="18" t="s">
         <v>96</v>
       </c>
@@ -2803,7 +2738,7 @@
       <c r="A26" s="59">
         <v>25</v>
       </c>
-      <c r="B26" s="99" t="s">
+      <c r="B26" s="102" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="15" t="s">
@@ -2836,7 +2771,7 @@
       <c r="A27" s="59">
         <v>26</v>
       </c>
-      <c r="B27" s="100"/>
+      <c r="B27" s="103"/>
       <c r="C27" s="27" t="s">
         <v>60</v>
       </c>
@@ -2867,7 +2802,7 @@
       <c r="A28" s="59">
         <v>27</v>
       </c>
-      <c r="B28" s="100"/>
+      <c r="B28" s="103"/>
       <c r="C28" s="27" t="s">
         <v>61</v>
       </c>
@@ -2898,7 +2833,7 @@
       <c r="A29" s="59">
         <v>28</v>
       </c>
-      <c r="B29" s="101"/>
+      <c r="B29" s="104"/>
       <c r="C29" s="18" t="s">
         <v>62</v>
       </c>
@@ -2929,7 +2864,7 @@
       <c r="A30" s="59">
         <v>29</v>
       </c>
-      <c r="B30" s="102" t="s">
+      <c r="B30" s="105" t="s">
         <v>24</v>
       </c>
       <c r="C30" s="15" t="s">
@@ -2962,7 +2897,7 @@
       <c r="A31" s="59">
         <v>30</v>
       </c>
-      <c r="B31" s="103"/>
+      <c r="B31" s="106"/>
       <c r="C31" s="26" t="s">
         <v>64</v>
       </c>
@@ -2993,7 +2928,7 @@
       <c r="A32" s="59">
         <v>31</v>
       </c>
-      <c r="B32" s="103"/>
+      <c r="B32" s="106"/>
       <c r="C32" s="27" t="s">
         <v>65</v>
       </c>
@@ -3024,7 +2959,7 @@
       <c r="A33" s="59">
         <v>32</v>
       </c>
-      <c r="B33" s="103"/>
+      <c r="B33" s="106"/>
       <c r="C33" s="26" t="s">
         <v>66</v>
       </c>
@@ -3055,7 +2990,7 @@
       <c r="A34" s="59">
         <v>33</v>
       </c>
-      <c r="B34" s="103"/>
+      <c r="B34" s="106"/>
       <c r="C34" s="27" t="s">
         <v>67</v>
       </c>
@@ -3086,7 +3021,7 @@
       <c r="A35" s="59">
         <v>34</v>
       </c>
-      <c r="B35" s="103"/>
+      <c r="B35" s="106"/>
       <c r="C35" s="27" t="s">
         <v>95</v>
       </c>
@@ -3118,7 +3053,7 @@
       <c r="A36" s="59">
         <v>35</v>
       </c>
-      <c r="B36" s="104"/>
+      <c r="B36" s="107"/>
       <c r="C36" s="18" t="s">
         <v>186</v>
       </c>
@@ -3149,7 +3084,7 @@
       <c r="A37" s="59">
         <v>36</v>
       </c>
-      <c r="B37" s="87" t="s">
+      <c r="B37" s="90" t="s">
         <v>188</v>
       </c>
       <c r="C37" s="27" t="s">
@@ -3182,7 +3117,7 @@
       <c r="A38" s="59">
         <v>37</v>
       </c>
-      <c r="B38" s="88"/>
+      <c r="B38" s="91"/>
       <c r="C38" s="27" t="s">
         <v>69</v>
       </c>
@@ -3213,7 +3148,7 @@
       <c r="A39" s="59">
         <v>38</v>
       </c>
-      <c r="B39" s="88"/>
+      <c r="B39" s="91"/>
       <c r="C39" s="27" t="s">
         <v>70</v>
       </c>
@@ -3244,7 +3179,7 @@
       <c r="A40" s="59">
         <v>39</v>
       </c>
-      <c r="B40" s="88"/>
+      <c r="B40" s="91"/>
       <c r="C40" s="26" t="s">
         <v>71</v>
       </c>
@@ -3275,7 +3210,7 @@
       <c r="A41" s="59">
         <v>40</v>
       </c>
-      <c r="B41" s="89"/>
+      <c r="B41" s="92"/>
       <c r="C41" s="18" t="s">
         <v>72</v>
       </c>
@@ -3306,7 +3241,7 @@
       <c r="A42" s="59">
         <v>41</v>
       </c>
-      <c r="B42" s="90" t="s">
+      <c r="B42" s="93" t="s">
         <v>35</v>
       </c>
       <c r="C42" s="15" t="s">
@@ -3339,7 +3274,7 @@
       <c r="A43" s="59">
         <v>42</v>
       </c>
-      <c r="B43" s="91"/>
+      <c r="B43" s="94"/>
       <c r="C43" s="27" t="s">
         <v>74</v>
       </c>
@@ -3370,7 +3305,7 @@
       <c r="A44" s="59">
         <v>43</v>
       </c>
-      <c r="B44" s="91"/>
+      <c r="B44" s="94"/>
       <c r="C44" s="27" t="s">
         <v>75</v>
       </c>
@@ -3401,7 +3336,7 @@
       <c r="A45" s="59">
         <v>44</v>
       </c>
-      <c r="B45" s="91"/>
+      <c r="B45" s="94"/>
       <c r="C45" s="27" t="s">
         <v>76</v>
       </c>
@@ -3432,7 +3367,7 @@
       <c r="A46" s="59">
         <v>45</v>
       </c>
-      <c r="B46" s="91"/>
+      <c r="B46" s="94"/>
       <c r="C46" s="27" t="s">
         <v>77</v>
       </c>
@@ -3463,7 +3398,7 @@
       <c r="A47" s="59">
         <v>46</v>
       </c>
-      <c r="B47" s="92"/>
+      <c r="B47" s="95"/>
       <c r="C47" s="18" t="s">
         <v>78</v>
       </c>
@@ -3494,7 +3429,7 @@
       <c r="A48" s="59">
         <v>47</v>
       </c>
-      <c r="B48" s="93" t="s">
+      <c r="B48" s="96" t="s">
         <v>38</v>
       </c>
       <c r="C48" s="15" t="s">
@@ -3527,7 +3462,7 @@
       <c r="A49" s="59">
         <v>48</v>
       </c>
-      <c r="B49" s="94"/>
+      <c r="B49" s="97"/>
       <c r="C49" s="27" t="s">
         <v>80</v>
       </c>
@@ -3558,7 +3493,7 @@
       <c r="A50" s="59">
         <v>49</v>
       </c>
-      <c r="B50" s="94"/>
+      <c r="B50" s="97"/>
       <c r="C50" s="27" t="s">
         <v>81</v>
       </c>
@@ -3589,7 +3524,7 @@
       <c r="A51" s="59">
         <v>50</v>
       </c>
-      <c r="B51" s="94"/>
+      <c r="B51" s="97"/>
       <c r="C51" s="27" t="s">
         <v>82</v>
       </c>
@@ -3620,7 +3555,7 @@
       <c r="A52" s="59">
         <v>51</v>
       </c>
-      <c r="B52" s="94"/>
+      <c r="B52" s="97"/>
       <c r="C52" s="27" t="s">
         <v>83</v>
       </c>
@@ -3651,7 +3586,7 @@
       <c r="A53" s="59">
         <v>52</v>
       </c>
-      <c r="B53" s="95"/>
+      <c r="B53" s="98"/>
       <c r="C53" s="18" t="s">
         <v>84</v>
       </c>
@@ -3715,7 +3650,7 @@
       <c r="A55" s="59">
         <v>54</v>
       </c>
-      <c r="B55" s="84" t="s">
+      <c r="B55" s="87" t="s">
         <v>114</v>
       </c>
       <c r="C55" s="15" t="s">
@@ -3748,7 +3683,7 @@
       <c r="A56" s="59">
         <v>55</v>
       </c>
-      <c r="B56" s="85"/>
+      <c r="B56" s="88"/>
       <c r="C56" s="27" t="s">
         <v>116</v>
       </c>
@@ -3779,7 +3714,7 @@
       <c r="A57" s="59">
         <v>56</v>
       </c>
-      <c r="B57" s="85"/>
+      <c r="B57" s="88"/>
       <c r="C57" s="27" t="s">
         <v>117</v>
       </c>
@@ -3807,7 +3742,7 @@
       <c r="L57" s="67"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B58" s="86"/>
+      <c r="B58" s="89"/>
       <c r="C58" s="18" t="s">
         <v>252</v>
       </c>
@@ -3822,7 +3757,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E57"/>
   <mergeCells count="8">
     <mergeCell ref="B55:B58"/>
     <mergeCell ref="B37:B41"/>
@@ -3889,7 +3823,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="112" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -3903,7 +3837,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="109"/>
+      <c r="A3" s="112"/>
       <c r="B3" s="30" t="s">
         <v>41</v>
       </c>
@@ -3915,7 +3849,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="109"/>
+      <c r="A4" s="112"/>
       <c r="B4" s="30" t="s">
         <v>42</v>
       </c>
@@ -3927,7 +3861,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="109"/>
+      <c r="A5" s="112"/>
       <c r="B5" s="30" t="s">
         <v>43</v>
       </c>
@@ -3939,7 +3873,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="109"/>
+      <c r="A6" s="112"/>
       <c r="B6" s="30" t="s">
         <v>44</v>
       </c>
@@ -3951,7 +3885,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="109"/>
+      <c r="A7" s="112"/>
       <c r="B7" s="30" t="s">
         <v>45</v>
       </c>
@@ -3963,7 +3897,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="109"/>
+      <c r="A8" s="112"/>
       <c r="B8" s="30" t="s">
         <v>46</v>
       </c>
@@ -3975,7 +3909,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" s="61" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="109"/>
+      <c r="A9" s="112"/>
       <c r="B9" s="30" t="s">
         <v>86</v>
       </c>
@@ -3987,7 +3921,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" s="61" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="109"/>
+      <c r="A10" s="112"/>
       <c r="B10" s="30" t="s">
         <v>92</v>
       </c>
@@ -3999,7 +3933,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="109"/>
+      <c r="A11" s="112"/>
       <c r="B11" s="30" t="s">
         <v>219</v>
       </c>
@@ -4011,7 +3945,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="109"/>
+      <c r="A12" s="112"/>
       <c r="B12" s="30" t="s">
         <v>220</v>
       </c>
@@ -4051,7 +3985,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="92" t="s">
         <v>180</v>
       </c>
       <c r="B15" s="30" t="s">
@@ -4065,7 +3999,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="110"/>
+      <c r="A16" s="113"/>
       <c r="B16" s="17" t="s">
         <v>72</v>
       </c>
@@ -4119,13 +4053,13 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="118" t="s">
+      <c r="A20" s="83" t="s">
         <v>114</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="C20" s="119" t="s">
+      <c r="C20" s="84" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="53" t="s">
@@ -4133,19 +4067,19 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="108"/>
+      <c r="A21" s="111"/>
       <c r="B21" s="39"/>
       <c r="C21" s="38"/>
       <c r="D21" s="40"/>
     </row>
     <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="108"/>
+      <c r="A22" s="111"/>
       <c r="B22" s="39"/>
       <c r="C22" s="38"/>
       <c r="D22" s="40"/>
     </row>
     <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="108"/>
+      <c r="A23" s="111"/>
       <c r="B23" s="39"/>
       <c r="C23" s="38"/>
       <c r="D23" s="40"/>
@@ -4207,7 +4141,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="112" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -4221,7 +4155,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="109"/>
+      <c r="A3" s="112"/>
       <c r="B3" s="30" t="s">
         <v>41</v>
       </c>
@@ -4233,7 +4167,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="109"/>
+      <c r="A4" s="112"/>
       <c r="B4" s="30" t="s">
         <v>43</v>
       </c>
@@ -4245,7 +4179,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="109"/>
+      <c r="A5" s="112"/>
       <c r="B5" s="30" t="s">
         <v>45</v>
       </c>
@@ -4257,7 +4191,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="116" t="s">
         <v>183</v>
       </c>
       <c r="B6" s="14" t="s">
@@ -4271,7 +4205,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="113"/>
+      <c r="A7" s="116"/>
       <c r="B7" s="30" t="s">
         <v>48</v>
       </c>
@@ -4283,7 +4217,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="113"/>
+      <c r="A8" s="116"/>
       <c r="B8" s="30" t="s">
         <v>50</v>
       </c>
@@ -4295,7 +4229,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="113"/>
+      <c r="A9" s="116"/>
       <c r="B9" s="30" t="s">
         <v>51</v>
       </c>
@@ -4307,7 +4241,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="113"/>
+      <c r="A10" s="116"/>
       <c r="B10" s="30" t="s">
         <v>52</v>
       </c>
@@ -4319,7 +4253,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="113"/>
+      <c r="A11" s="116"/>
       <c r="B11" s="30" t="s">
         <v>53</v>
       </c>
@@ -4331,7 +4265,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="113"/>
+      <c r="A12" s="116"/>
       <c r="B12" s="31" t="s">
         <v>54</v>
       </c>
@@ -4343,7 +4277,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="113"/>
+      <c r="A13" s="116"/>
       <c r="B13" s="30" t="s">
         <v>55</v>
       </c>
@@ -4355,7 +4289,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="113"/>
+      <c r="A14" s="116"/>
       <c r="B14" s="31" t="s">
         <v>56</v>
       </c>
@@ -4367,7 +4301,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="113"/>
+      <c r="A15" s="116"/>
       <c r="B15" s="31" t="s">
         <v>57</v>
       </c>
@@ -4379,7 +4313,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="113"/>
+      <c r="A16" s="116"/>
       <c r="B16" s="30" t="s">
         <v>58</v>
       </c>
@@ -4391,7 +4325,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="113"/>
+      <c r="A17" s="116"/>
       <c r="B17" s="32" t="s">
         <v>96</v>
       </c>
@@ -4403,7 +4337,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="114" t="s">
+      <c r="A18" s="117" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="14" t="s">
@@ -4417,7 +4351,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="114"/>
+      <c r="A19" s="117"/>
       <c r="B19" s="30" t="s">
         <v>60</v>
       </c>
@@ -4429,7 +4363,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="114"/>
+      <c r="A20" s="117"/>
       <c r="B20" s="30" t="s">
         <v>61</v>
       </c>
@@ -4441,7 +4375,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="114"/>
+      <c r="A21" s="117"/>
       <c r="B21" s="17" t="s">
         <v>62</v>
       </c>
@@ -4467,7 +4401,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="89" t="s">
+      <c r="A23" s="92" t="s">
         <v>188</v>
       </c>
       <c r="B23" s="30" t="s">
@@ -4481,7 +4415,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="110"/>
+      <c r="A24" s="113"/>
       <c r="B24" s="30" t="s">
         <v>70</v>
       </c>
@@ -4493,7 +4427,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="110"/>
+      <c r="A25" s="113"/>
       <c r="B25" s="31" t="s">
         <v>71</v>
       </c>
@@ -4505,7 +4439,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="110"/>
+      <c r="A26" s="113"/>
       <c r="B26" s="17" t="s">
         <v>72</v>
       </c>
@@ -4517,7 +4451,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="115" t="s">
+      <c r="A27" s="118" t="s">
         <v>35</v>
       </c>
       <c r="B27" s="14" t="s">
@@ -4531,7 +4465,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="115"/>
+      <c r="A28" s="118"/>
       <c r="B28" s="30" t="s">
         <v>74</v>
       </c>
@@ -4543,7 +4477,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="115"/>
+      <c r="A29" s="118"/>
       <c r="B29" s="30" t="s">
         <v>75</v>
       </c>
@@ -4555,7 +4489,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="115"/>
+      <c r="A30" s="118"/>
       <c r="B30" s="30" t="s">
         <v>76</v>
       </c>
@@ -4567,7 +4501,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="115"/>
+      <c r="A31" s="118"/>
       <c r="B31" s="30" t="s">
         <v>77</v>
       </c>
@@ -4579,7 +4513,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="115"/>
+      <c r="A32" s="118"/>
       <c r="B32" s="17" t="s">
         <v>78</v>
       </c>
@@ -4591,7 +4525,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="111" t="s">
+      <c r="A33" s="114" t="s">
         <v>38</v>
       </c>
       <c r="B33" s="14" t="s">
@@ -4605,7 +4539,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="111"/>
+      <c r="A34" s="114"/>
       <c r="B34" s="30" t="s">
         <v>80</v>
       </c>
@@ -4617,7 +4551,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="111"/>
+      <c r="A35" s="114"/>
       <c r="B35" s="30" t="s">
         <v>81</v>
       </c>
@@ -4629,7 +4563,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="111"/>
+      <c r="A36" s="114"/>
       <c r="B36" s="30" t="s">
         <v>82</v>
       </c>
@@ -4641,7 +4575,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="111"/>
+      <c r="A37" s="114"/>
       <c r="B37" s="30" t="s">
         <v>83</v>
       </c>
@@ -4653,7 +4587,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="111"/>
+      <c r="A38" s="114"/>
       <c r="B38" s="17" t="s">
         <v>84</v>
       </c>
@@ -4679,7 +4613,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="112" t="s">
+      <c r="A40" s="115" t="s">
         <v>110</v>
       </c>
       <c r="B40" s="14" t="s">
@@ -4693,7 +4627,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="112"/>
+      <c r="A41" s="115"/>
       <c r="B41" s="30" t="s">
         <v>112</v>
       </c>
@@ -4705,7 +4639,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="112"/>
+      <c r="A42" s="115"/>
       <c r="B42" s="17" t="s">
         <v>113</v>
       </c>
@@ -4717,7 +4651,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="84" t="s">
+      <c r="A43" s="87" t="s">
         <v>114</v>
       </c>
       <c r="B43" s="30" t="s">
@@ -4731,7 +4665,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="85"/>
+      <c r="A44" s="88"/>
       <c r="B44" s="30" t="s">
         <v>116</v>
       </c>
@@ -4743,7 +4677,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="85"/>
+      <c r="A45" s="88"/>
       <c r="B45" s="30" t="s">
         <v>117</v>
       </c>
@@ -4755,11 +4689,11 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="86"/>
+      <c r="A46" s="89"/>
       <c r="B46" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="C46" s="120" t="s">
+      <c r="C46" s="85" t="s">
         <v>10</v>
       </c>
       <c r="D46" s="18" t="s">
@@ -4768,6 +4702,7 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A43:A46"/>
     <mergeCell ref="A33:A38"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A2:A5"/>
@@ -4775,7 +4710,6 @@
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="A27:A32"/>
-    <mergeCell ref="A43:A46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4812,7 +4746,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="112" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -4826,7 +4760,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="109"/>
+      <c r="A3" s="112"/>
       <c r="B3" s="27" t="s">
         <v>41</v>
       </c>
@@ -4838,7 +4772,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="109"/>
+      <c r="A4" s="112"/>
       <c r="B4" s="27" t="s">
         <v>43</v>
       </c>
@@ -4850,7 +4784,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="109"/>
+      <c r="A5" s="112"/>
       <c r="B5" s="27" t="s">
         <v>45</v>
       </c>
@@ -4862,7 +4796,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="116" t="s">
         <v>183</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -4876,7 +4810,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="113"/>
+      <c r="A7" s="116"/>
       <c r="B7" s="27" t="s">
         <v>50</v>
       </c>
@@ -4888,7 +4822,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="113"/>
+      <c r="A8" s="116"/>
       <c r="B8" s="27" t="s">
         <v>51</v>
       </c>
@@ -4900,7 +4834,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="113"/>
+      <c r="A9" s="116"/>
       <c r="B9" s="27" t="s">
         <v>52</v>
       </c>
@@ -4912,7 +4846,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="113"/>
+      <c r="A10" s="116"/>
       <c r="B10" s="27" t="s">
         <v>53</v>
       </c>
@@ -4924,7 +4858,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="113"/>
+      <c r="A11" s="116"/>
       <c r="B11" s="26" t="s">
         <v>56</v>
       </c>
@@ -4936,7 +4870,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="113"/>
+      <c r="A12" s="116"/>
       <c r="B12" s="26" t="s">
         <v>57</v>
       </c>
@@ -4948,7 +4882,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="113"/>
+      <c r="A13" s="116"/>
       <c r="B13" s="28" t="s">
         <v>96</v>
       </c>
@@ -4988,7 +4922,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="110" t="s">
+      <c r="A16" s="113" t="s">
         <v>188</v>
       </c>
       <c r="B16" s="27" t="s">
@@ -5002,7 +4936,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="110"/>
+      <c r="A17" s="113"/>
       <c r="B17" s="27" t="s">
         <v>70</v>
       </c>
@@ -5014,7 +4948,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="110"/>
+      <c r="A18" s="113"/>
       <c r="B18" s="18" t="s">
         <v>72</v>
       </c>
@@ -5026,7 +4960,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="115" t="s">
+      <c r="A19" s="118" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="15" t="s">
@@ -5040,7 +4974,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="115"/>
+      <c r="A20" s="118"/>
       <c r="B20" s="27" t="s">
         <v>74</v>
       </c>
@@ -5052,7 +4986,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="115"/>
+      <c r="A21" s="118"/>
       <c r="B21" s="27" t="s">
         <v>75</v>
       </c>
@@ -5064,7 +4998,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="115"/>
+      <c r="A22" s="118"/>
       <c r="B22" s="27" t="s">
         <v>76</v>
       </c>
@@ -5076,7 +5010,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="115"/>
+      <c r="A23" s="118"/>
       <c r="B23" s="27" t="s">
         <v>77</v>
       </c>
@@ -5088,7 +5022,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="115"/>
+      <c r="A24" s="118"/>
       <c r="B24" s="18" t="s">
         <v>78</v>
       </c>
@@ -5100,7 +5034,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="111" t="s">
+      <c r="A25" s="114" t="s">
         <v>38</v>
       </c>
       <c r="B25" s="15" t="s">
@@ -5114,7 +5048,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="111"/>
+      <c r="A26" s="114"/>
       <c r="B26" s="27" t="s">
         <v>80</v>
       </c>
@@ -5126,7 +5060,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="111"/>
+      <c r="A27" s="114"/>
       <c r="B27" s="27" t="s">
         <v>81</v>
       </c>
@@ -5138,7 +5072,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="111"/>
+      <c r="A28" s="114"/>
       <c r="B28" s="27" t="s">
         <v>82</v>
       </c>
@@ -5150,7 +5084,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="111"/>
+      <c r="A29" s="114"/>
       <c r="B29" s="27" t="s">
         <v>83</v>
       </c>
@@ -5162,7 +5096,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="111"/>
+      <c r="A30" s="114"/>
       <c r="B30" s="18" t="s">
         <v>84</v>
       </c>
@@ -5188,7 +5122,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="112" t="s">
+      <c r="A32" s="115" t="s">
         <v>110</v>
       </c>
       <c r="B32" s="15" t="s">
@@ -5202,7 +5136,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="112"/>
+      <c r="A33" s="115"/>
       <c r="B33" s="27" t="s">
         <v>112</v>
       </c>
@@ -5214,7 +5148,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="112"/>
+      <c r="A34" s="115"/>
       <c r="B34" s="18" t="s">
         <v>113</v>
       </c>
@@ -5226,7 +5160,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="84" t="s">
+      <c r="A35" s="87" t="s">
         <v>114</v>
       </c>
       <c r="B35" s="30" t="s">
@@ -5240,7 +5174,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="85"/>
+      <c r="A36" s="88"/>
       <c r="B36" s="30" t="s">
         <v>116</v>
       </c>
@@ -5252,7 +5186,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="85"/>
+      <c r="A37" s="88"/>
       <c r="B37" s="30" t="s">
         <v>117</v>
       </c>
@@ -5264,11 +5198,11 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="86"/>
+      <c r="A38" s="89"/>
       <c r="B38" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="C38" s="120" t="s">
+      <c r="C38" s="85" t="s">
         <v>10</v>
       </c>
       <c r="D38" s="18" t="s">
@@ -5277,13 +5211,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A35:A38"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A13"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A24"/>
     <mergeCell ref="A25:A30"/>
-    <mergeCell ref="A35:A38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5321,7 +5255,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="112" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -5335,7 +5269,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="109"/>
+      <c r="A3" s="112"/>
       <c r="B3" s="27" t="s">
         <v>41</v>
       </c>
@@ -5347,7 +5281,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="109"/>
+      <c r="A4" s="112"/>
       <c r="B4" s="27" t="s">
         <v>43</v>
       </c>
@@ -5359,7 +5293,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="109"/>
+      <c r="A5" s="112"/>
       <c r="B5" s="27" t="s">
         <v>45</v>
       </c>
@@ -5371,7 +5305,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="116" t="s">
         <v>183</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -5385,7 +5319,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="113"/>
+      <c r="A7" s="116"/>
       <c r="B7" s="27" t="s">
         <v>50</v>
       </c>
@@ -5397,7 +5331,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="113"/>
+      <c r="A8" s="116"/>
       <c r="B8" s="27" t="s">
         <v>51</v>
       </c>
@@ -5409,7 +5343,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="113"/>
+      <c r="A9" s="116"/>
       <c r="B9" s="27" t="s">
         <v>52</v>
       </c>
@@ -5421,7 +5355,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="113"/>
+      <c r="A10" s="116"/>
       <c r="B10" s="27" t="s">
         <v>53</v>
       </c>
@@ -5433,7 +5367,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="113"/>
+      <c r="A11" s="116"/>
       <c r="B11" s="26" t="s">
         <v>56</v>
       </c>
@@ -5445,7 +5379,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" s="61" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="113"/>
+      <c r="A12" s="116"/>
       <c r="B12" s="26" t="s">
         <v>57</v>
       </c>
@@ -5457,7 +5391,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="113"/>
+      <c r="A13" s="116"/>
       <c r="B13" s="27" t="s">
         <v>58</v>
       </c>
@@ -5483,7 +5417,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="116" t="s">
+      <c r="A15" s="119" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -5497,7 +5431,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="116"/>
+      <c r="A16" s="119"/>
       <c r="B16" s="26" t="s">
         <v>66</v>
       </c>
@@ -5509,7 +5443,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="116"/>
+      <c r="A17" s="119"/>
       <c r="B17" s="27" t="s">
         <v>67</v>
       </c>
@@ -5521,7 +5455,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="116"/>
+      <c r="A18" s="119"/>
       <c r="B18" s="18" t="s">
         <v>186</v>
       </c>
@@ -5533,7 +5467,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="110" t="s">
+      <c r="A19" s="113" t="s">
         <v>251</v>
       </c>
       <c r="B19" s="27" t="s">
@@ -5547,7 +5481,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="110"/>
+      <c r="A20" s="113"/>
       <c r="B20" s="27" t="s">
         <v>70</v>
       </c>
@@ -5559,7 +5493,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="110"/>
+      <c r="A21" s="113"/>
       <c r="B21" s="18" t="s">
         <v>72</v>
       </c>
@@ -5571,7 +5505,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="115" t="s">
+      <c r="A22" s="118" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="15" t="s">
@@ -5585,7 +5519,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="115"/>
+      <c r="A23" s="118"/>
       <c r="B23" s="27" t="s">
         <v>74</v>
       </c>
@@ -5597,7 +5531,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="115"/>
+      <c r="A24" s="118"/>
       <c r="B24" s="27" t="s">
         <v>75</v>
       </c>
@@ -5609,7 +5543,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="115"/>
+      <c r="A25" s="118"/>
       <c r="B25" s="27" t="s">
         <v>76</v>
       </c>
@@ -5621,7 +5555,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="115"/>
+      <c r="A26" s="118"/>
       <c r="B26" s="27" t="s">
         <v>77</v>
       </c>
@@ -5633,7 +5567,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="115"/>
+      <c r="A27" s="118"/>
       <c r="B27" s="18" t="s">
         <v>78</v>
       </c>
@@ -5645,7 +5579,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="111" t="s">
+      <c r="A28" s="114" t="s">
         <v>38</v>
       </c>
       <c r="B28" s="15" t="s">
@@ -5659,7 +5593,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="111"/>
+      <c r="A29" s="114"/>
       <c r="B29" s="27" t="s">
         <v>80</v>
       </c>
@@ -5671,7 +5605,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="111"/>
+      <c r="A30" s="114"/>
       <c r="B30" s="27" t="s">
         <v>81</v>
       </c>
@@ -5683,7 +5617,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="111"/>
+      <c r="A31" s="114"/>
       <c r="B31" s="27" t="s">
         <v>82</v>
       </c>
@@ -5695,7 +5629,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="111"/>
+      <c r="A32" s="114"/>
       <c r="B32" s="27" t="s">
         <v>83</v>
       </c>
@@ -5707,7 +5641,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="111"/>
+      <c r="A33" s="114"/>
       <c r="B33" s="18" t="s">
         <v>84</v>
       </c>
@@ -5733,7 +5667,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="112" t="s">
+      <c r="A35" s="115" t="s">
         <v>110</v>
       </c>
       <c r="B35" s="15" t="s">
@@ -5747,7 +5681,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="112"/>
+      <c r="A36" s="115"/>
       <c r="B36" s="27" t="s">
         <v>112</v>
       </c>
@@ -5759,7 +5693,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="112"/>
+      <c r="A37" s="115"/>
       <c r="B37" s="18" t="s">
         <v>113</v>
       </c>
@@ -5771,7 +5705,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="84" t="s">
+      <c r="A38" s="87" t="s">
         <v>114</v>
       </c>
       <c r="B38" s="30" t="s">
@@ -5785,7 +5719,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="85"/>
+      <c r="A39" s="88"/>
       <c r="B39" s="30" t="s">
         <v>116</v>
       </c>
@@ -5797,7 +5731,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="85"/>
+      <c r="A40" s="88"/>
       <c r="B40" s="30" t="s">
         <v>117</v>
       </c>
@@ -5809,11 +5743,11 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="86"/>
+      <c r="A41" s="89"/>
       <c r="B41" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="C41" s="120" t="s">
+      <c r="C41" s="85" t="s">
         <v>10</v>
       </c>
       <c r="D41" s="18" t="s">
@@ -5822,6 +5756,7 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A38:A41"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="A2:A5"/>
@@ -5829,7 +5764,6 @@
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A38:A41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5866,7 +5800,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="116" t="s">
         <v>183</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -5880,7 +5814,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" s="61" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="113"/>
+      <c r="A3" s="116"/>
       <c r="B3" s="27" t="s">
         <v>96</v>
       </c>
@@ -5892,7 +5826,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="113"/>
+      <c r="A4" s="116"/>
       <c r="B4" s="26" t="s">
         <v>56</v>
       </c>
@@ -5904,7 +5838,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" s="61" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="113"/>
+      <c r="A5" s="116"/>
       <c r="B5" s="27" t="s">
         <v>96</v>
       </c>
@@ -5916,7 +5850,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="113"/>
+      <c r="A6" s="116"/>
       <c r="B6" s="28" t="s">
         <v>57</v>
       </c>
@@ -5942,7 +5876,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="119" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="16" t="s">
@@ -5956,7 +5890,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="116"/>
+      <c r="A9" s="119"/>
       <c r="B9" s="27" t="s">
         <v>65</v>
       </c>
@@ -5968,7 +5902,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="116"/>
+      <c r="A10" s="119"/>
       <c r="B10" s="18" t="s">
         <v>95</v>
       </c>
@@ -5980,7 +5914,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="92" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -5994,7 +5928,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="110"/>
+      <c r="A12" s="113"/>
       <c r="B12" s="27" t="s">
         <v>70</v>
       </c>
@@ -6006,7 +5940,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="110"/>
+      <c r="A13" s="113"/>
       <c r="B13" s="18" t="s">
         <v>72</v>
       </c>
@@ -6060,13 +5994,13 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="118" t="s">
+      <c r="A17" s="83" t="s">
         <v>114</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="C17" s="119" t="s">
+      <c r="C17" s="84" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="53" t="s">
@@ -6128,7 +6062,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="105" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -6142,7 +6076,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="117"/>
+      <c r="A4" s="120"/>
       <c r="B4" s="76" t="s">
         <v>186</v>
       </c>
@@ -6179,7 +6113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>

--- a/1.DELIVERABLE/1.3 REQUIREMENT/BSS_ListOfUsecaseDescriptions_V1.0.xlsx
+++ b/1.DELIVERABLE/1.3 REQUIREMENT/BSS_ListOfUsecaseDescriptions_V1.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CapstonProject\CapstonProject\1.DELIVERABLE\1.3 REQUIREMENT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Capstone\CapstonProject\1.DELIVERABLE\1.3 REQUIREMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OverView!$E$1:$E$57</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -1929,8 +1929,8 @@
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -3742,6 +3742,9 @@
       <c r="L57" s="67"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="59">
+        <v>57</v>
+      </c>
       <c r="B58" s="89"/>
       <c r="C58" s="18" t="s">
         <v>252</v>
@@ -3796,8 +3799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:D20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4114,7 +4117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A43" sqref="A43:D46"/>
     </sheetView>
   </sheetViews>
@@ -4719,7 +4722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A35" sqref="A35:D38"/>
     </sheetView>
   </sheetViews>
